--- a/ITSUP2018/Upload/Excel/Test.xlsx
+++ b/ITSUP2018/Upload/Excel/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profile\User\Desktop\KBLC-SUPPORT\Project-Claim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{49EF7EC8-85FD-4550-98AE-680849370624}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{393DD4FE-75DA-4980-894B-B1B7C5314134}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{46781079-B8EF-4C48-9622-765B8F1DA2E1}"/>
   </bookViews>
@@ -394,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,13 +402,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -423,12 +436,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,55 +761,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F22D638-83B3-4D67-A602-EDD38E1220D4}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
